--- a/data/Booktopia.xlsx
+++ b/data/Booktopia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="3696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19668" windowHeight="3216"/>
   </bookViews>
   <sheets>
     <sheet name="BookDetails" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>BookName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Funny Kid</t>
   </si>
   <si>
-    <t>silver witch</t>
-  </si>
-  <si>
-    <t>lion king</t>
+    <t>Meet Me</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Starting School</t>
   </si>
 </sst>
 </file>
@@ -349,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,26 +367,30 @@
     <col min="2" max="3" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
